--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECE104B-CBDA-4C48-92B6-3DE54B465D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE6BAA-1175-5943-9427-9807A4CAD6DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="289">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -919,6 +917,30 @@
   <si>
     <t>Communicating and discussing progress, 
 practising pair programming and understanding concepts more clearly</t>
+  </si>
+  <si>
+    <t>US23()</t>
+  </si>
+  <si>
+    <t>US24()</t>
+  </si>
+  <si>
+    <t>459-477</t>
+  </si>
+  <si>
+    <t>484-503</t>
+  </si>
+  <si>
+    <t>test_userstory23()</t>
+  </si>
+  <si>
+    <t>test_userstory24()</t>
+  </si>
+  <si>
+    <t>91-94</t>
+  </si>
+  <si>
+    <t>96-99</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3194,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3736,7 +3758,7 @@
         <v>187</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -3753,7 +3775,7 @@
         <v>187</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -4608,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5097,10 +5119,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5109,7 +5131,7 @@
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5137,8 +5159,26 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>122</v>
       </c>
@@ -5158,7 +5198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>123</v>
       </c>
@@ -5178,7 +5218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>126</v>
       </c>
@@ -5198,7 +5238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>127</v>
       </c>
@@ -5218,7 +5258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>130</v>
       </c>
@@ -5238,7 +5278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>131</v>
       </c>
@@ -5258,7 +5298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>134</v>
       </c>
@@ -5269,7 +5309,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -5277,8 +5317,35 @@
       <c r="F8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" t="s">
+        <v>281</v>
+      </c>
+      <c r="L8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>135</v>
       </c>
@@ -5289,13 +5356,40 @@
         <v>187</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="F9">
         <v>100</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" t="s">
+        <v>284</v>
+      </c>
+      <c r="M9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE6BAA-1175-5943-9427-9807A4CAD6DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D0EBD-06CE-6A45-A58A-C501CEE2467D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -3084,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3216,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3462,10 +3464,10 @@
         <v>163</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>185</v>
@@ -3479,10 +3481,10 @@
         <v>163</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>185</v>
@@ -4630,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -5121,8 +5123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5220,10 +5222,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>185</v>
@@ -5240,10 +5242,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>185</v>
@@ -5447,8 +5449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D0EBD-06CE-6A45-A58A-C501CEE2467D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABBBA4C-C9DB-9446-8B83-CA0C1AD3EE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="297">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -939,10 +939,34 @@
     <t>test_userstory24()</t>
   </si>
   <si>
-    <t>91-94</t>
-  </si>
-  <si>
-    <t>96-99</t>
+    <t>US39()</t>
+  </si>
+  <si>
+    <t>test_userstory38()</t>
+  </si>
+  <si>
+    <t>test_userstory39()</t>
+  </si>
+  <si>
+    <t>71-74</t>
+  </si>
+  <si>
+    <t>616-634</t>
+  </si>
+  <si>
+    <t>640-667</t>
+  </si>
+  <si>
+    <t>76-79</t>
+  </si>
+  <si>
+    <t>101-104</t>
+  </si>
+  <si>
+    <t>106-109</t>
+  </si>
+  <si>
+    <t>incomplete</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3243,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3473,7 +3497,7 @@
         <v>185</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3490,7 +3514,7 @@
         <v>185</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -5124,13 +5148,15 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -5231,13 +5257,40 @@
         <v>185</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4">
         <v>100</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L4" t="s">
+        <v>291</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5251,13 +5304,40 @@
         <v>185</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5">
         <v>100</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L5" t="s">
+        <v>292</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5344,7 +5424,7 @@
         <v>285</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -5391,7 +5471,7 @@
         <v>286</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5402,15 +5482,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5437,6 +5521,160 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABBBA4C-C9DB-9446-8B83-CA0C1AD3EE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE18A8A-52FA-6C4A-83B4-6BB1FDB7FB8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="460" windowWidth="18340" windowHeight="15940" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -927,12 +925,6 @@
     <t>US24()</t>
   </si>
   <si>
-    <t>459-477</t>
-  </si>
-  <si>
-    <t>484-503</t>
-  </si>
-  <si>
     <t>test_userstory23()</t>
   </si>
   <si>
@@ -960,13 +952,19 @@
     <t>76-79</t>
   </si>
   <si>
-    <t>101-104</t>
-  </si>
-  <si>
-    <t>106-109</t>
-  </si>
-  <si>
     <t>incomplete</t>
+  </si>
+  <si>
+    <t>520-539</t>
+  </si>
+  <si>
+    <t>549-569</t>
+  </si>
+  <si>
+    <t>115-118</t>
+  </si>
+  <si>
+    <t>120-123</t>
   </si>
 </sst>
 </file>
@@ -3242,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -3849,7 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -5147,8 +5145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5278,19 +5276,19 @@
         <v>241</v>
       </c>
       <c r="K4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M4" t="s">
         <v>212</v>
       </c>
       <c r="N4" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>288</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5325,19 +5323,19 @@
         <v>241</v>
       </c>
       <c r="K5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M5" t="s">
         <v>212</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5400,7 +5398,7 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -5415,16 +5413,16 @@
         <v>281</v>
       </c>
       <c r="L8" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M8" t="s">
         <v>212</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -5447,7 +5445,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -5462,16 +5460,16 @@
         <v>282</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M9" t="s">
         <v>212</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5492,7 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5552,7 +5550,7 @@
         <v>182</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5569,7 +5567,7 @@
         <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -5586,7 +5584,7 @@
         <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -5603,7 +5601,7 @@
         <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -5620,7 +5618,7 @@
         <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -5637,7 +5635,7 @@
         <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -5654,7 +5652,7 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -5671,7 +5669,7 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E9">
         <v>50</v>

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE6BAA-1175-5943-9427-9807A4CAD6DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE18A8A-52FA-6C4A-83B4-6BB1FDB7FB8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="460" windowWidth="18340" windowHeight="15940" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="297">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -925,22 +925,46 @@
     <t>US24()</t>
   </si>
   <si>
-    <t>459-477</t>
-  </si>
-  <si>
-    <t>484-503</t>
-  </si>
-  <si>
     <t>test_userstory23()</t>
   </si>
   <si>
     <t>test_userstory24()</t>
   </si>
   <si>
-    <t>91-94</t>
-  </si>
-  <si>
-    <t>96-99</t>
+    <t>US39()</t>
+  </si>
+  <si>
+    <t>test_userstory38()</t>
+  </si>
+  <si>
+    <t>test_userstory39()</t>
+  </si>
+  <si>
+    <t>71-74</t>
+  </si>
+  <si>
+    <t>616-634</t>
+  </si>
+  <si>
+    <t>640-667</t>
+  </si>
+  <si>
+    <t>76-79</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>520-539</t>
+  </si>
+  <si>
+    <t>549-569</t>
+  </si>
+  <si>
+    <t>115-118</t>
+  </si>
+  <si>
+    <t>120-123</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3216,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3462,16 +3486,16 @@
         <v>163</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>185</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3479,16 +3503,16 @@
         <v>163</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>185</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3823,7 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -4630,7 +4654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -5121,14 +5145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -5220,16 +5246,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>185</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -5237,25 +5263,79 @@
       <c r="F4">
         <v>100</v>
       </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>185</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5">
         <v>100</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" t="s">
+        <v>290</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5318,7 +5398,7 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -5333,16 +5413,16 @@
         <v>281</v>
       </c>
       <c r="L8" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M8" t="s">
         <v>212</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -5365,7 +5445,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -5380,16 +5460,16 @@
         <v>282</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M9" t="s">
         <v>212</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5400,15 +5480,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5435,6 +5519,160 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5447,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE18A8A-52FA-6C4A-83B4-6BB1FDB7FB8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAF77F1-A416-6A41-B6A8-6F7236B63F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="460" windowWidth="18340" windowHeight="15940" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="305">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -965,6 +965,30 @@
   </si>
   <si>
     <t>120-123</t>
+  </si>
+  <si>
+    <t>US11()</t>
+  </si>
+  <si>
+    <t>US12()</t>
+  </si>
+  <si>
+    <t>886-931</t>
+  </si>
+  <si>
+    <t>937-963</t>
+  </si>
+  <si>
+    <t>test_userstory11()</t>
+  </si>
+  <si>
+    <t>test_userstory12()</t>
+  </si>
+  <si>
+    <t>125-127</t>
+  </si>
+  <si>
+    <t>129-131</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1182,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1211,7 +1235,6 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1220,6 +1243,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3240,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3352,7 +3377,7 @@
         <v>182</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3369,7 +3394,7 @@
         <v>182</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -4042,7 +4067,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4050,7 +4075,8 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="5" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4081,7 +4107,7 @@
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>42410</v>
       </c>
       <c r="C2">
@@ -4097,7 +4123,7 @@
       <c r="A3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>42427</v>
       </c>
       <c r="C3">
@@ -4121,7 +4147,7 @@
       <c r="A4" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>42444</v>
       </c>
       <c r="C4">
@@ -4133,7 +4159,7 @@
       <c r="E4">
         <v>692</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>200</v>
       </c>
       <c r="G4" s="9">
@@ -4153,6 +4179,16 @@
       </c>
       <c r="D5">
         <v>8</v>
+      </c>
+      <c r="E5">
+        <v>966</v>
+      </c>
+      <c r="F5" s="9">
+        <v>220</v>
+      </c>
+      <c r="G5" s="38">
+        <f>(E5-E4)/F5*60</f>
+        <v>74.72727272727272</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -4173,7 +4209,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F20"/>
+      <selection activeCell="C22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4655,7 +4691,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C20" sqref="B14:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5101,13 +5137,13 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
@@ -5122,13 +5158,13 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5143,16 +5179,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" customWidth="1"/>
   </cols>
@@ -5214,14 +5251,41 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>195</v>
+      <c r="D2" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="E2">
         <v>40</v>
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5234,14 +5298,41 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>195</v>
+      <c r="D3" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
         <v>100</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5254,7 +5345,7 @@
       <c r="C4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E4">
@@ -5301,7 +5392,7 @@
       <c r="C5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E5">
@@ -5348,7 +5439,7 @@
       <c r="C6" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E6">
@@ -5356,6 +5447,15 @@
       </c>
       <c r="F6">
         <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5368,7 +5468,7 @@
       <c r="C7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E7">
@@ -5376,6 +5476,15 @@
       </c>
       <c r="F7">
         <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -5388,7 +5497,7 @@
       <c r="C8" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E8">
@@ -5435,7 +5544,7 @@
       <c r="C9" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E9">
@@ -5472,7 +5581,52 @@
         <v>296</v>
       </c>
     </row>
+    <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C20:G20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAF77F1-A416-6A41-B6A8-6F7236B63F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A3F58-B5D6-DE41-B9A0-B7DB9246968B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="306">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>129-131</t>
+  </si>
+  <si>
+    <t>Too many commits to project</t>
   </si>
 </sst>
 </file>
@@ -1237,14 +1240,14 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4067,7 +4070,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4183,10 +4186,10 @@
       <c r="E5">
         <v>966</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="35">
         <v>220</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="36">
         <f>(E5-E4)/F5*60</f>
         <v>74.72727272727272</v>
       </c>
@@ -5137,13 +5140,13 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
@@ -5158,13 +5161,13 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5182,7 +5185,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5251,7 +5254,7 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E2">
@@ -5298,7 +5301,7 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E3">
@@ -5345,7 +5348,7 @@
       <c r="C4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E4">
@@ -5392,7 +5395,7 @@
       <c r="C5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E5">
@@ -5439,7 +5442,7 @@
       <c r="C6" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E6">
@@ -5468,7 +5471,7 @@
       <c r="C7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E7">
@@ -5497,7 +5500,7 @@
       <c r="C8" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E8">
@@ -5544,7 +5547,7 @@
       <c r="C9" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E9">
@@ -5593,13 +5596,13 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
@@ -5614,13 +5617,13 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A3F58-B5D6-DE41-B9A0-B7DB9246968B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B20B6-16AF-434D-BA3C-48939A980863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="314">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -992,6 +994,30 @@
   </si>
   <si>
     <t>Too many commits to project</t>
+  </si>
+  <si>
+    <t>US34()</t>
+  </si>
+  <si>
+    <t>US20()</t>
+  </si>
+  <si>
+    <t>294-309</t>
+  </si>
+  <si>
+    <t>319-349</t>
+  </si>
+  <si>
+    <t>test_userstory34()</t>
+  </si>
+  <si>
+    <t>test_userstory20()</t>
+  </si>
+  <si>
+    <t>36-40</t>
+  </si>
+  <si>
+    <t>28-34</t>
   </si>
 </sst>
 </file>
@@ -4693,7 +4719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C20" sqref="B14:G20"/>
     </sheetView>
   </sheetViews>
@@ -5184,8 +5210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5451,14 +5477,32 @@
       <c r="F6">
         <v>100</v>
       </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
       <c r="I6" t="s">
         <v>206</v>
       </c>
       <c r="J6" t="s">
         <v>241</v>
       </c>
+      <c r="K6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>308</v>
+      </c>
       <c r="M6" t="s">
         <v>212</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5480,14 +5524,32 @@
       <c r="F7">
         <v>100</v>
       </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
       <c r="I7" t="s">
         <v>206</v>
       </c>
       <c r="J7" t="s">
         <v>241</v>
       </c>
+      <c r="K7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L7" t="s">
+        <v>309</v>
+      </c>
       <c r="M7" t="s">
         <v>212</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
